--- a/data/report_data.xlsx
+++ b/data/report_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -130,166 +130,189 @@
     <t xml:space="preserve">Duygusal Değişkenlik</t>
   </si>
   <si>
-    <t xml:space="preserve">Low for A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{} Low for F”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low for G5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle for G5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High for G5</t>
+    <t xml:space="preserve">Bayan X/Bay X için insanlarla bir arada olmak, bir gruba dahil olmak ve paylaşım yapmak bir ihtiyaç olarak duyumsanmaz. İnsanlarla ilişki kurmak ve ilişkilerini sürdürmek Bayan X/Bay X için çok önemli değildir ve bunun için çok fazla çaba harcamaz. 
+Bayan X/Bay X, insanlara karşı tamamen ilgisiz değildir ancak sınırlı sayıda insanla ilişki içerisindedir. Kişisel bir alana sahip olmaya ve kendisiyle yalnız kalmaya ihtiyaç duyar. Diğer insanlara karşı daha uzak ve bireysel bir yapıda olduğu söylenebilir.  
+İnsanlarla sık sık paylaşım yapmadığı için duygularını diğer insanlara göstermek ve diğerlerinin duygularını anlamak konusunda sorunlar yaşayabilir. Bayan X/Bay X çoğu zaman bu durumun kendisi de farkındadır. 
+Duygusal olarak yoğun durumlarda bile objektif davranabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, karşılaştığı olumsuz durumlardan etkilenen bir yapıya sahiptir. Duygusal olma eğilimi gösterdiği söylenebilir, dolayısıyla stresli durumlara sert tepkiler verebilir. 
+Bayan X/Bay X, bu nedenlerle duygularını kontrol etmekte güçlük çekebilir. Bir sorunla karşılaştığında soğukkanlı kalmak konusunda başarısız olabilir ve bu sorunla baş edemeyeceğini düşünerek kaygı hissedebilir. Bu sebeple mevcut işi sürdürürken bir engelle karşılaştığı durumda amacına giden yolda yürümekte zorlanabilir. 
+Değişime ya da zorlu durumlara karşı etkili şekilde tepki veremeyebilir. Bayan X/Bay X, karşılaştığı problemleri çözme aşamasında alternatif bakış açıları ve çözümler geliştirmekte zorlanabilir. Kendini daha güvende hissettiği rutin işleri tercih edebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, başkalarının isteklerine göre hareket etme eğilimi gösterir. Başkalarını yönlendirme ihtiyacı düşük olduğu için ilişkilerde uyum sağlayan taraf olabilir. İnsan ilişkilerinde mütevazı, uysal ve yumuşak başlı bir tutumda olabilir. 
+Uyumlu ve alttan alan tavırları nedeniyle iş birliğine yatkındır. Bayan X/Bay X, yöneticilik rolünü tercih etmeme, bu rolü başkalarına bırakma eğilimi gösterir. Dolayısıyla kendi iradesiyle yönetici olma ihtimali düşüktür. Yönetici olduğu bir durumda ise ekibini sahip olduğu kontrol üzerinden değil, iyi ilişkiler kurarak, uyum ve iş birliğine önem vererek yönlendirme eğilimindedir. 
+Çatışmadan ve anlaşmazlıktan kaçınan bir yapıya sahiptir. Bu yüzden ilişkilerde rekabetten ziyade uyum ve uzlaşmaya önem verme eğilimindedir. Bayan X/Bay X için hayır demek oldukça zor olabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, içinden geldiği gibi davranmaktan ziyade sakınma eğilimi gösterir. Bir davranışta bulunmadan önce sonuçları hakkında düşünme alışkanlığına sahip olabilir. Bu özelliği sayesinde tedbirli davranma alışkanlığı kazanmış olduğu söylenebilir. Tehlikeleri önceden sezme ve zorluklardan kaçınma yetisi gelişmiş olabilir. Yanlış algılanmaktan çekinme ve ilişkilerde dikkat çekmekten kaçınma eğilimleri gösterir. Bir ortamda sahnede olmak yerine daha arka planda, güvende bir alanda kalmayı tercih edebilir. Böylece tedbirli ve kontrollü bir yapıya sahip olduğu söylenebilir. 
+Tedbirli, kontrollü ve sakin yapısı sayesinde iş ortamında bir proje ya da alan üzerinde uzun süre konsantrasyonunu koruma yetisine sahip olabilir. Bu özelliği sayesinde bir alanda uzmanlaşma kapasitesinin yüksek olduğu söylenebilir. Alıştığı ve güvende hissettiği ortamlarda bulunmaya yönelik eğiliminden dolayı iş değiştirme motivasyonu düşük olabilir.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, toplumsal norm ve kuralları sorgulama eğilimi gösterir. Toplumun beklentilerini önce analiz ederek kendi mantık süzgecinden geçirir ve kendi değerleri ile örtüşmesi durumunda kabul eder. Bu sebeple toplumun kendisinden beklediği şekilde davranmakta güçlük çekebilir. 
+Toplumsal kural ve normları kendi değer yargılarına göre anlamlandırma ihtiyacı duyabilir. Sorumluluk almaya istekli olmayabilir. Bu yüzden okul ve iş hayatında zorluk yaşayabilir. Esneklik gerektiren ve rutin olmayan, işlerin belirli yollarla değil de değişen süreçlerle işlendiği işlerde başarılı olabilir.  Sorgulayıcı yapısından ötürü eleştirel bakış açısı gelişmiştir. Çoğunlukla gelenekçi olmayan, bireysel ve bağımsız bir tutuma sahiptir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X için sosyal ilişkilerin açığa çıkardığı stres kaçınılması gereken bir durumdur. Dolayısıyla toplumsal ilişkiler onu rahatsız hissettirebilir. Bu durum çekingen ve utangaç bir profil çizmesine neden olabilir. Sosyal ortamlarda genellikle fark edilmemeyi tercih edebilir ve birileriyle tanışmak, sohbeti başlatmak onun için oldukça güç olabilir. 
+Çatışmalardan ve fikir ayrılıklarından rahatsız olabilir ve bunlardan kaçınma eğilimi gösterebilir. Tehditlere karşı hassas ve tehlikelere karşı duyarlıdır. Bu eğilim sebebiyle utangaç ve ürkek bir yapıya sahip olduğu söylenebilir. Çekingen yapısından dolayı kendi fikirlerini öne sürmekten ve sosyal çatışmalarda taraf olmaktan kaçınmaya eğilimli olabilir. Bu sebeple genellikle uyumlu ve uzlaşmacı biri olarak bilinir. 
+Belirsizliğe toleransı düşüktür. Bu sebeple yapılacak ve söylenecek şeylerin açıklıkla belli olduğu durumlarda daha rahat hissedebilir. Ortamın gereklerine uygun olarak davranışlarını düzenleme eğilimine sahiptir. Bu özelliği sayesinde genel olarak aranan insan olma özelliğine sahip olabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, bir bilgiyi işlerken, yorumlarken ya da bir karara varırken duygularından ziyade somut olana odaklanma eğilimi gösterir. Objektif bilgiye, mantığa ve akla önem verebilir ve kararlarını bunların ışığında almaya özen gösterebilir. Bir problemle uğraşırken pratik çözümler üzerine eğilebilir. 
+Bayan X/Bay X, duygularını işin içine çok fazla karıştırmadığı için acil durumlara etkili bir şekilde karşılık verebilir. Somut olan veriyi önemsemesi, duygudan ziyade akıl ve mantıkla hareket edebilmesi sayesinde iş yerinde verimliliği artırabilir. Ancak kendisinin ve diğer insanların istek ve ihtiyaçlarını anlamakta ve empati kurmakta zorluk yaşayabilir. Somut verilere dayanarak aldığı hızlı kararlar, sert ve hoşgörüsüz bir yapıda algılanmasına sebep olabilir. Takım çalışması gerektiren işlerde bu özellikleri çatışmalara yol açabilir. Bayan X/Bay X, sert ama alınması gereken kararlar alması gerektiğinde, bunları alma eğilimindedir. Diğer insanlara karşı yüksek empati ve duyarlılık gerektiren işlerde zorlanabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, davranışları iyi niyetle yorumlamaya yatkındır. Diğer insanların davranışlarını genellikle iyi yönde algılayıp, ardındaki niyeti sorgulamadan iletişim kurma ihtiyacı hisseder. Bu sayede genellikle insan ilişkilerinde rahat bir izlenim bırakır. Karşısındaki kişilere de iyi niyete dayalı güvenli bir ilişki içerisinde oldukları hissini verebilme ihtimali yüksektir. 
+Bayan X/Bay X için güvene dayalı ilişkiler kurmak önemlidir. İnsan doğasının özünde iyi olduğunu düşünmeye eğilimlidir ve bu bağlamda ilişkilerinin özünü güven oluşturur. Bu özelliği sebebiyle ilişkiler içerisinde güvenini sarsacak durumları önceden sezme ve tedbir alma konusunda başarısız olabilir. Suistimal edilme, kullanılma ya da kandırılma gibi durumlarla karşılaştığında ileri seviyede hayal kırıklığı yaşayabilir. Kıskançlık, şüphecilik ve rekabetçilik gibi eğilimler göstermez. Bu özellikleriyle Bayan X/Bay X, takım çalışması gerektiren durumlarda uyumlu bir görüntü sergileyebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, sonuç odaklı ve pratiktir.  Bir işi bitirmeyi önemseme eğilimindedir. Bir işi ya da konuyu ele aldığında parçalara ve pratik detaylara odaklanabilir. Bu yüzden bazı durumlarda bütünü görememe ve detaylarda kaybolma eğilimleri olabilir.
+Yapması gereken şeyleri daha önceden denenmiş ve başarısı kanıtlanmış yollarla yapma eğilimi gösterir. Bir işi bütün içerisinde anlamlandırmaktan ziyade bitirmeyi önemseyebilir. 
+Sonuç odaklı ve pratik yapısından dolayı operasyonel, somut odaklı ve rutin işleri tercih edebilir. Rekabet ortamlarından kaçınabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, kendinden emin olma eğilimi gösterir. Kararlı ve atak davranışlar sergileyebilir. Bir işe girişmekten korkmayan, hedeflerine ulaşma konusunda kendi yeteneklerine güvenen biri olduğu söylenebilir. Olumsuz durumlarla karşılaştığında yanlışın kendisinden değil çevresinden kaynaklandığını düşünebilir. Bu nedenle kendini suçlama eğilimi düşüktür. 
+Bayan X/Bay X, genellikle rahat olma eğilimindedir. Üyesi olduğu topluluk içinde belirli ve etkin bir yeri olabilir. Gerektiğinde harekete geçmekten, bir işe başlamaktan kaçınmaz.
+Kendine olan güveni ve özsaygısı onu kendisini gerektiğinden az sorgulamaya itebilir. Böylece başkalarından geri bildirim alma, geliştirilmesi gereken yanlarını görebilme konusunda sorunlar yaşayabilir. Ayrıca başkalarına geri bildirim verirken, duyguları hesaba katmadan sert davranabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, yeniliğin getireceği belirsizliğin gerginliğini göze alamadığı için mevcut olanı koruma ve geleneksel olana saygı gösterme eğilimleri gösterir. Daha önce denenmiş yöntemleri kullanmayı tercih edebilir. Bu yüzden yeni düşünce ve yöntemlere karşı şüpheyle yaklaşma eğilimi gösterir. 
+Günlük hayatında tahmin edilebilir ve tanıdık olanı, bilinmeyen ve yeni olana tercih eder. Bayan X/Bay X için, ani değişimler baş edilmesi güç şeyler olabilir. Bu yüzden memnun olmadığı bir durumda bile harekete geçmeyebilir. 
+Çevresi tarafından sadık ve bağlı biri olarak nitelendirilebilir. Bayan X/Bay X, çatışmaları tehlikeli olarak algılamaya eğilimlidir. Bu yüzden çatışmaları bütün tarafları yatıştırarak çözmeye çalışabilir. Ne yapılacağı belli olan, yerleşmiş metotlara sahip işleri tercih edebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, esnek ve düzensiz olma eğilimi gösterir. Her şeyi önceden planlayıp, organize etmek yerine işleri akışına bırakabilir. Kendini harcadığı çaba üzerinden değerlendirme eğilimi göstermez ve diğerlerinin gözündeki imajını fazla önemsemez. 
+Yapması gerekeni yapması gerektiği gibi değil içinden geldiği/sevdiği gibi yapmayı tercih edebilir. Bir işle uğraşırken esnek davranabilir. Bu yüzden detaylara karşı duyarlı olmayabilir. Esnek olmasının işin sonucunun mükemmel olmasını amaçlamaması, farklı yöntemleri alışılmış yöntemlere tercih etmesi gibi farklı sebepleri olabilir. Ancak esnekliğinin sebebinden bağımsız olarak dağınık ve dikkatsiz biri olarak algılanabilir. Esnek çalışma saatlerine sahip ve insanların kendi potansiyellerini bulmalarına yardımcı olan işlerde başarılı olabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, sakin, rahat ve aldırmaz olma eğilimi gösterir. Yoğun stres yaşamaya yatkın değildir. Nadiren stres hissedebilir, ancak bu genellikle düşük seviyelerde olur. Stres yaşadığı durumlarda bile kolayca gevşeyebilir. 
+Vücudunda stresi çok fazla duyumsamaz. Genelde elindekinden memnun ve anlaşılması kolay bir profil çizer. Ancak bu özellikleri nedeniyle bazı harekete geçilmesi gereken durumlarda gereken adımı atmakta yavaş kalabilir ve yetkinliklerine göre daha az başarı elde edebilir. Motive olması güç olabilir ve bu durumdan ötürü iş hayatında sorun yaşayabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X insan ilişkilerine karşı ortalama bir ilgi seviyesine sahiptir. Bazı durumlarda insanlarla ilişki kurma eğilimi gösterirken bazı durumlarda ilgisiz kalabilir. Bayan X/Bay X çoğunlukla yeni ilişkiler kurmak için çaba sarf etmeyebilir ancak kurduğu ilişkileri de sürdürme eğilimi gösterebilir. 
+Duygusal olarak yakın hissettiği kişilerin ihtiyaçlarına ve ait hissettiği grubun dinamiklerine karşı duyarlıdır ancak bütün insanlarla ya da insan topluluklarıyla sıkı ilişki kurma eğiliminde değildir. Bu durumun avantajı olarak bir ortamda duygusal bağ kurma ihtiyacı karşılanmasa dahi motivasyon kaybına uğramadan işi sürdürebilir. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bayan X/Bay X, karşılaştığı yeni problemlere ya da olumsuz hayat tecrübelerine karşı güçlü reaksiyonlar gösterebiliyor olsa da zaman zaman bu durumlardan olumsuz etkilenebilir. İçinde bulunduğu durumu kavrayıp, ihtiyaçlarını belirleyip ona göre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Minion Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">çözümler üretme noktasında başarılı ve başarısız olduğu durumlar olabilir. 
+Gündelik hayatta karşılaştığı durumların açığa çıkardığı stresle baş edebiliyor olsa da zaman zaman bu konuda başarısız olabilir. Bayan X/Bay X, bazı olumsuz durumlar karşısında soğukkanlı ve sakin kalabilirken bazı durumlar karşısında kontrolünü kaybedebilir ve duygularına kapılabilir. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, diğer insanlarla girdiği ilişkilerde tamamen yönlendirici ya da tamamen yönlendirilen olma eğilimi göstermez. Ne yönlendirme ne de yönlendirilme ihtiyacı baskındır. 
+Bayan X/Bay X, kendini ifade eder ve başkalarının da kendilerini ifade etmesine fırsat verir. Zaman zaman yönlendirme ihtiyacı duyarken zaman zaman uyumlu bir tavır sergileyebilir. İstek ve ihtiyaçlarını karşısındaki kişilere aktarabilir, ancak kimi durumlarda bunu tercih etmeyebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, çoğu zaman güvenli hissettiği ortamda kalma eğilimindedir. Bir davranışta bulunmadan önce sonuçları hakkında akıl yürütse de zaman zaman içinden geldiği gibi davranma eğilimi gösterebilir. Bazı durumlarda tedbirli ve sakin bir yapıya sahip olsa da bazı sosyal durumlarda enerjik, hareketli, konuşkan ve tedbirsiz davranışlar sergileyebilir. 
+Bayan X/Bay X, zaman zaman ilgiden kaçınıp zaman zaman göz önünde olma ihtiyacı hissedebilir. Kendisini güvende hissettiği durumlarda sahnede olmaktan çekinmeyebilir.  Bir iş üzerinde konsantre olarak çalışabilir, konsantrasyonu kolay kolay bozulmama eğilimindedir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, toplumsal değer, norm ve kurallara saygılı olma eğilimindedir. Ancak bu norm ve kurallar kendi değerleriyle çeliştiği zamanlarda bunlara uymadan önce kendi değer yargılarına göre bunları anlamlandırma ihtiyacı duyabilir. 
+Toplumsal kurallara uymadığı durumda yüksek bir suçluluk ya da rahatsızlık hissetmez. Ancak toplumsal kurallara agresif bir şekilde karşı tutumla yaklaşmaz. Bir kurala uymadan önce o kurala uymadığı takdirde oluşacak yaptırımı da analiz ederek aksiyon alır. Toplumsal kuralları çoğunlukla uygulasa da zaman zaman kendine uygun olmayan kuralları esnetebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayan X/Bay X, bazı sosyal ortamlarda girişken görünebilir ancak zaman zaman çekingen ve utangaç bir profil sergileyebilir. Sosyal stres ihtiyacı hissettiği durumlar olsa da, zaman zaman stresi kaçınılması gereken bir durum olarak algılayabilir. Yani Bayan X/Bay X çekingen ya da girişken görünme noktasında duruma göre değişkenlik gösterme eğilimindedir. Sosyal ortamlara girip, fikirlerini rahatlıkla belirtebildiği zamanlar olduğu gibi bundan çekindiği zamanlar da söz konusu olabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, bilgiyi işlerken, yorumlarken ya da bir karar alırken hem duygularını kullanarak hem de mantığıyla hareket edebilir. Bayan X/Bay X gerektiği durumlarda gerçekliğin hem duygusal hem de objektif yanlarını kavrayabilme yetisine sahiptir. Bazı durumlarda duygular ve düşünceler onun için önemli olurken bazı durumlarda akla ve mantığa verdiği önem ağır basmaktadır. Kendi duygularını duyumsayabilse ve başkalarıyla empati kurabilse de gerektiğinde mantığını dinlediği zamanlar olabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, karşısındaki kişilerin davranışlarını zaman zaman şüpheyle karşılarken zaman zaman sorgulamadan güvenme eğilimi gösterir. Davranışların arkasındaki niyeti irdeleme eğilimi ortalama seviyededir. İnsanların kötü niyetli olduklarına dair bir kabulü yoktur ve insanlardan sürekli güvenini sarsacak hamleler beklemez. 
+Takım çalışması gerektiren durumlarda takımın diğer üyeleriyle iyi ilişkiler kurabilir ancak bazen bunu başaramayabilir. Diğer insanlarla güvene dayalı ilişkiler kurabilir ancak bazen şüpheci ve eleştirel bir tavır takınabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, bir işi yaparken zaman zaman bütün içerisindeki anlamına odaklanırken, zaman zaman detaylara ve sonuca odaklanabilir. 
+Kurulu bir düzenin kendi iç dinamikleriyle devam etmesine katkı sağlayabilir. Değişim gerektiğinde ise bu değişimin gerçekleşmesi için katkıda bulunabilir. Rutin işleri tercih edebildiği gibi ilgi alanlarına uyduğu takdirde bütünsel bir yaklaşım gerektiren karmaşık işlerden de zevk alabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, zaman zaman kendini sorgulama zaman zaman ise kendinden emin olma eğilimleri gösterir. Olumsuz durumlarla karşılaştığında çevresel faktörlerin etkisini görebilir aynı zamanda kendi sorumluluğunu görüp kendini suçlama eğilimi de gösterebilir. Rahat olduğu zamanlar olduğu gibi kendini sorguladığı, rahatsız hissettiği durumlar da olabilir. Kendine olan güveni ve özsaygısı düşük olmamakla birlikte, zaman zaman kendini sorguladığı durumlar olabilir. Geri bildirim alıp bu geri bildirimi kullanabilir. Ancak bazı durumlarda bu geçerli olmayabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, mevcut olanı kabul edip geleneksel olanla barışık olsa da, zaman zaman sorgulama eğilimi gösterebilir. Kimi durumlarda mevcut sisteme adapte olup, ona göre davranırken, bazı durumlarda sistemi sorgulama ve değiştirme ihtiyacı hissedebilir. Bunun için risk alabilir ve değişim sürecinin getirdiği belirsizliği göze alabilir. 
+Gerekli gördüğü değişimleri göğüsleyebilirken, kendisinin isteği dışında gerçekleşen değişimleri yorucu ve tehlikeli bulabilir. Bayan X/Bay X hem mevcut düzeni sürdürmesinin gerektiği işlere hem de yenilik gerektiren işlere uyum sağlayabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, zaman zaman organize ve disiplinli olma, zaman zaman ise esnek ve düzensiz olma eğilimindedir. Kendini bazı durumlarda harcadığı çaba üzerinden değerlendirebilir. Ama kendini değerlendirme açısından öznel prensipleri de olabilir. Kendine verdiği değeri belirlerken sadece yaptığı iş ve başarıyı kriter olarak kullanmayabilir. Titiz, azimli, kararlı ve detay odaklı olabileceği gibi, ilgisini çekmeyen işlerde esnek ve düzensiz olabilir. 
+Hem tam zamanlı bir işe hem de esnek çalışma saatlerine sahip bir işe uyum sağlayabilir. Kendi kullandığı stratejilerin en doğru seçimler olduğu konusunda dayatmaz, insanların kullandıkları stratejileri anlamlandırır ve onlara saygı duyabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, stres hissetme ve gergin olma konusunda ortalama seviyelerde olma eğilimindedir. Zaman zaman stres yaşayabilirken, yoğun stres durumu sürekli olmama eğilimi gösterir. Duygularını genel olarak dengede tutabilirken, bazı durumlarda duygularını kontrol etmekte zorlanabilir. Genel anlamda ne çok rahat ne de çok enerjik ve gergin bir yapıya sahiptir. 
+Nadiren stresi vücudunda duyumsar. Stresli durumlar yaşadığında bir süre sonra gevşemeyi başarabilir. Stresini dışa vurabileceği çeşitli kanallara sahiptir ve stresini kanalize edebilir. Gerektiğinde stresi kullanarak motive olabilir, tehlike algısı olmadığında ise rahat ve sakindir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X insan ilişkilerine karşı oldukça ilgilidir. Bir gruba dahil olmak Bayan X/Bay X için çoğu zaman bir ihtiyaç olarak hissedilir. İnsanlarla ilişki kurmak ve ilişkilerini sürdürmek Bayan X/Bay X için önemlidir ve bu konuda başarılıdır. Ayrıca duygularını kolayca ifade edebilir ve bu konudaki başarısı başkalarının duygularını ve ihtiyaçlarını anlamasına da yardımcı olur. 
+Bir gruba dahil olduğunda grubun dinamikleri Bayan X/Bay X’in davranışlarını yüksek derecede etkileyebilir. Bu durum, bulunduğu grubun kurallarına uygun bir şekilde davranmasına neden olabilir. Duygusal bağ kurma ihtiyacı yüksek olduğu için, bu ihtiyacı karşılanmadığında motivasyon kaybına uğrayabilir. Rekabet gerektiren değil ilişki kurmayı gerektiren işleri tercih edebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X’in hayatta karşılaştığı olumsuz durumlara karşı toleransı yüksektir. Hayatın gelgitlerine karşı dayanıklı bir yapıya sahiptir ve bu gelgitlerden sonra çabucak toparlanabilir. 
+Bayan X/Bay X, problemleri duygularını çok fazla karıştırmadan, sakince ve gerçekçi bir bakış açısıyla ele alma eğilimi gösterir. Bu sayede gerek gündelik hayatındaki problemleri, gerek genel anlamda yaşam problemlerini çözmekte oldukça başarılıdır. 
+Bayan X/Bay X, içinde bulunduğu durumu duygularından çok fazla etkilenmeden değerlendirebilir, kendi ihtiyaçlarını rahatlıkla kavrayabilir ve bu ihtiyaçlara yönelik adımlar atabilir. Amaçlarını gerçekleştirme aşamasında ya da farklı bir problemle karşılaştığında geniş bir perspektiften durumu ele alabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, ilişkide olduğu insanlara ya da genel anlamda ilişkilerine yön verme eğilimi gösterir. Kendi isteğine göre hareket etme ve diğerlerini ikna etme ihtiyacı duyar. Diğer insanlara ne düşündüğünü rahatlıkla söyleyebilir ve bu özelliğiyle sosyal ortamlarda etkili bir imaj çizer. 
+Bayan X/Bay X, kendi yöntemlerinin en doğru olduğu ve uygulanması gerektiği fikrine sahip olabilir. Bu noktada harekete geçme ve diğer kişileri de harekete geçmek için zorlama eğilimi gösterebilir. Bu açıdan ilişkilerde baskın ve girişken bir tutum sergileyebilir. 
+Yön verme ihtiyacına odaklanarak diğer insanların bu durumdan ne derece etkilendiklerini dikkate almayabilir. Bu özelliğiyle bir grup içerisinde lider rolünü rahatlıkla üstlenebilir. Bayan X/Bay X, diğer insanların istek ve ihtiyaçlarını yeterince dikkate almayabilir. Kontrol etme ihtiyacı nedeniyle kendini fiziksel ve zihinsel olarak aşırı yorabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, içinden geldiği gibi davranma eğilimi gösterir. İçinden geldiği gibi davranma eğilimi, doğal coşkunluk ve enerji ile bir araya geldiğinde çevresi tarafından “çocuk gibi” diye nitelendirilebilir. 
+İlgi görme ve dikkat çekme ihtiyacı yüksektir, “sahnede olma”ya alışkındır. Başkalarından gördüğü ilgi ve hayranlık Bayan X/Bay X için önemlidir. İlgi görmediği, takdir edilmediği durumlarda motivasyonunu kaybedebilir. 
+Bayan X/Bay X, içinden geleni olduğu gibi dışarı vurması sebebiyle davranışlarını sonuçlarını düşünmeden ortaya koyabilir. 
+Sosyal ortamlarda hareketli, konuşkan ve eğlenceli bir imaj çizebilir. İş ortamında ise sahip olduğu güçlü yönleri sergileyebileceği ve ilgiyi üzerine toplayabileceği görevler üstlenme eğilimi gösterir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, toplumsal değerleri, normları ve kuralları sorgulamadan benimsemeye eğilimlidir. Toplum tarafından onaylanan normlara göre davranmaya yatkınlık gösterebilir. Toplumsal değerlerin uygulanması için sorumluluk almayı sevebilir ve diğer insanların da sorumluluklarını yerine getirmeleri gerektiğini düşünebilir. 
+Bu özellikleri sebebiyle diğer insanları da toplumsal norm ve kurallara uymaya teşvik eden bir tutuma sahiptir. Bayan X/Bay X, esneklik gerektiren ya da farklı kuralların benimsenmesini gerektiren durumlara adaptasyon sürecinde zorluk çekebilir. Toplumsal normları benimsemesi ve başkalarından da bunu beklemesi, çevresindekiler tarafından “yargılayıcı” olarak nitelendirilmesine neden olabilir. Kuralları esnetmesi gereken durumlarda suçluluk yaşayıp çoğunlukla görev duygusunun etkisiyle hareket edebilir. Kararlı, iradeli ve yaşamını toplumsal değerlere uygun şekilde yaşayan bir kişi olduğu söylenebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, girişken ve gözüpek olma eğilimi gösterir. Sosyal ortamlarda konuşkan ve rahat bir görünüm sergileyebilir. Cesur, macerayı seven, gerginlikten korkmayan biri olduğu söylenebilir.  
+Kendine güvenen ve gözüpek yapısından dolayı sosyal ortamlara rahatça girip, insanlarla iletişime geçebilir. Bu gibi ortamlarda karşılaşacağı olası aksiliklerden kaçınmama eğilimi gösterir. Bu durum olası bir çatışmaya girmekten çekinmemesine sebep olur. 
+Bayan X/Bay X, hızlı iletişime geçebilmesine rağmen bazen başkalarının duygularını ve kendi duygularını anlamakta zorlanabilir. 
+Bayan X/Bay X, hızlı bir şekilde karar alma eğilimine sahiptir. Aldığı hızlı kararlar her zaman doğru kararlar olmayabilir. Ancak eleştirilmek onun için çok da önemsenecek bir mesele olmayabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, bir bilgiyi işlerken, yorumlarken ya da karar alırken somut olandan ziyade kendi öznel duygularına göre hareket etmeye eğilimlidir. Duygular ve ihtiyaçlar onun için önemli olabilir. Hem kendi duygularını hem de başkalarının duygularını yüksek derecede duyumsar ve empati yeteneği gelişmiş bir profil çizebilir. 
+Acıma duygusu gelişmiştir ve diğerlerine karşı duyarlıdır. Bununla birlikte kendisine karşı da aynı duyarlılıkla yaklaşılmasını bekleyebilir. İnsanlarla duygusal bağlar kurmayı gerektiren işlerde başarılı olabilir. Bayan X/Bay X, duygusal yapısı nedeniyle bazı durumlarda telaşa kapılabilir. Bazı durumlarda ise alınması gereken zorunlu kararları erteleme eğilimi gösterebilir. Kendisine verilen geribildirimi kişiselleştirebilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, davranışların arkasındaki niyeti sorgulamaya eğilimlidir. Kuşkucu ve diğer insanların davranışlarının altındaki asıl nedeni sorgulayan bir yapıda olduğu söylenebilir. Bu nedenle eleştirel ve şüpheci bir yaklaşımı benimseme eğilimi gösterir. Sürekli tetikte olması ve şüpheci yaklaşımı nedeniyle karşısındaki insanlara karşı sert çıkışlarda bulunabilir. İlişkide olduğu kişileri tehdit altında ve yargılanıyor gibi hissettirebilir. 
+Bayan X/Bay X, bu sebeplerle çevresi tarafından geçinilmesi zor biri olarak tanımlanabilir ve takım çalışması gerektiren işlerde zorluk çekebilir. Ancak davranışlara şüpheyle yaklaşma alışkanlığı, bazı durumlarda yanılma olasılığını düşürdüğü ve farklı olasılıkları göz önünde bulundurma alışkanlığı kazandırdığı için, eleştirel yaklaşım ve şüphe gerektiren işlerde başarılı olabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, düşüncelere, teorilere, yaratıcı düşünceye odaklanma eğilimi gösterir. Düşünmek ve anlamak onun için önemli olabilir. 
+Bayan X/Bay X, yaptığı işlerde anlam aramaya meyillidir, dolayısıyla bütünsel bir yaklaşım benimseyebilir ve bütün içinde anlamlı bulmadığı bir işi yürütmeyi tercih etmeyebilir. Bütünsel yaklaşımı sebebiyle önemli detayları gözden kaçırma eğilimi gösterebilir.
+Sahip olduğu bilgileri kullanarak yeni fikirler oluşturmaya yatkındır. Yaratıcı olmak ve yaptığı işlerde fark yaratmak onun için önemlidir.  Bu yüzden bu özelliğini kullanmasını gerektiren işlerde yararlı bir rol oynayabilir. Bir işi, içsel bir anlam yükleyerek ve şimdiye kadarki tüm birikimini ve hayal gücünü katarak gerçekleştirmeye ihtiyaç duyar. Uzun vadeli, araştırma gerektiren işlerde başarılı olabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, kendini sorgulama eğilimi gösterir. Davranışlarının sonuçlarıyla ve bu sonuçların başkaları üzerindeki etkileriyle ilgilenir. Dolayısıyla olumsuz bir durumla karşılaştığında sorumluluğun kendisinde olduğunu hissedebilir ve sıklıkla kendini suçlayabilir.
+Sıklıkla kendini suçlaması sonucunda aldığı kararlardan ve davranışlarının doğruluğundan emin olamayabilir. Olumsuz durumlarda kendisi dışındaki faktörlerin rolünü gözden kaçırabilir. Bu sebeple diğerleri arasında kendisini daha değersiz ve yetersiz görebilir. Ayrıca kendini sık sık eleştiriyor olması, başkaları tarafından gelen eleştirilere karşı toleransının düşmesine neden olabilir. Başkaları tarafından iyi, insancıl ve vicdanlı diye tanımlanabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, mevcut durumu sorgulama, yeni düşüncelere açık olma eğilimleri gösterir. Alışılmış olanı sorgulayıp, eksikleri ve yapılması gerekenleri görüp, mevcut olana karşı çıkabilir. Yenilik ihtiyacı yüksektir. 
+Sorgulamayı, yeni bakış açıları getirmeyi değerli bulur. Sorunlara yeni bakış açıları getirebilir. Bu özelliğiyle bulunduğu ortamlarda dikkat çekici görünebilir. Ancak bu özellikleri sebebiyle bulunduğu ortamdaki otorite ile çatışabilir. 
+Yenilik ihtiyacının karşılanmadığı ortamlarda uyum sorunu yaşayabilir. Ayrıca yeni olan fikir ve deneyimlere eğiliminden dolayı bazı durumlarda mevcut olandaki iyi tarafı gözden kaçırabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, organize ve özdisiplinli olma eğilimi gösterir. Hedeflerini düzenli ve zamanında bir şekilde gerçekleştirmek için çaba harcar. Kendini sarf ettiği çaba üzerinden değerlendirme eğilimi gösterir. Bir iş üzerinde çalışırken azimli, titiz ve düzenli olarak ortaya başarılı bir iş çıkardığında kendisini değerli hissetmektedir. Bu yüzden detaylara karşı duyarlı olabilir. 
+Bu özellikleri dolayısıyla organize ortamlardan ve tahmin edilebilir işlerden hoşlanır. İşlerini olabilecek en mükemmel şekilde yapmak için kendi yöntemleri olabilir. Bu durumun düzenli yapısıyla bir araya gelince, Bayan X/Bay X’in, verimliliğini artırabileceği söylenebilir. Hataya veya başka kişilerin yetersizliklerine karşı tahammülü düşük olabilir. Ayrıca kendisinin kabul etmediği iş yapış yöntemlerine de direnç gösterebilir. Dolayısıyla takım çalışmasında sorunlar yaşayabilir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayan X/Bay X, enerjik, sabırsız ve gergin olma eğilimi gösterir. Yoğun stres hissetmeye yatkındır. Stresle baş etme ve duygularını dengede tutmada zorlanabilir. Sabırsız, gergin ve şikayetçi olma eğilimi gösterir. Hayatta karşılaştığı stresli durumlar karşısında kolayca tetiklenebilir. Gergin, sinirli ve duygusal dengesi bozulmaya yatkın olabilir. Stresin etkisindeyken gevşemekte zorlanabilir. 
+Stresi vücudunda duyumsayabilir. Duygularını ve tekrarlayan düşüncelerini kontrol altına almakta zorlanabilir. Ancak, bu stres doğru kanalize edildiğinde verimli bir iş performansı gösterebilir.</t>
   </si>
 </sst>
 </file>
@@ -299,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,6 +351,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Minion Pro"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,12 +399,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,11 +443,11 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -541,175 +581,140 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="0" t="s">
+    </row>
+    <row r="4" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="0" t="s">
+    <row r="5" s="5" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="H5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -729,7 +734,7 @@
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
     </row>
-    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
